--- a/projeto/Documentos/BackLog-Luminous-Equipe-2.xlsx
+++ b/projeto/Documentos/BackLog-Luminous-Equipe-2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23229"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/willian_oliveira_bandtec_com_br/Documents/PESQUISA E INOVAÇÃO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888AAB3B-18E9-4AB7-AE50-355C61397F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7033FDB-9947-4995-BDC5-EC2DD0FD776B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG DE LEGADO" sheetId="1" r:id="rId1"/>
     <sheet name="BACKLOG MONITORAMENTO" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{E7A445FB-D402-4AE1-9840-CBE44CABDDE8}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{F9060B61-5450-4D0D-8D1A-273C08359158}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -133,9 +133,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>Mudança de Layout</t>
-  </si>
-  <si>
     <t>DIGITAL</t>
   </si>
   <si>
@@ -211,12 +208,6 @@
     <t>NÃO FUNCIONAL</t>
   </si>
   <si>
-    <t>Conexão wifi do dispositivo</t>
-  </si>
-  <si>
-    <t>Gerar relatório das filiais e/ou empresa</t>
-  </si>
-  <si>
     <t>IMPORTANTE</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
     <t xml:space="preserve">Comparar ambientes cadastrados </t>
   </si>
   <si>
-    <t>Correções de Bugs</t>
-  </si>
-  <si>
     <t>U.I EFICIÊNTE</t>
   </si>
   <si>
@@ -278,6 +266,24 @@
   </si>
   <si>
     <t>DISPONIBILIZAR ESTATÍSTICAS</t>
+  </si>
+  <si>
+    <t>MUDANÇA DE CORES</t>
+  </si>
+  <si>
+    <t>ADICIONAR RESPONSIVIDADE</t>
+  </si>
+  <si>
+    <t>REESTRUTURAR PÁGINAS</t>
+  </si>
+  <si>
+    <t>Controle de horarío de lampadas ligadas</t>
+  </si>
+  <si>
+    <t>Conexão wifi</t>
+  </si>
+  <si>
+    <t>Gerar relatório</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +357,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,8 +418,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -592,17 +610,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -739,103 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -949,13 +859,256 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -967,128 +1120,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,7 +1161,7 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,96 +1189,213 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,414 +1714,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="9"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1">
+    <row r="4" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1">
-      <c r="C5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="15" t="s">
+    <row r="5" spans="2:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="71">
+        <v>3</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="J5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G6" s="75">
+        <v>3</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="F7" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="79">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2201050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G8" s="82">
+        <v>8</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55" t="s">
+      <c r="G9" s="86">
         <v>13</v>
       </c>
-      <c r="J6" s="50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="82">
+        <v>13</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="82">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
+    </row>
+    <row r="17" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G17" s="86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="102">
         <v>5</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="51">
-        <v>2201050</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="34">
-        <v>8</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="36">
-        <v>13</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="34">
-        <v>13</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="30" customHeight="1">
-      <c r="C16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="30" customHeight="1">
-      <c r="C17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="30" customHeight="1">
-      <c r="C18" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="30" customHeight="1">
-      <c r="C19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="30" customHeight="1">
-      <c r="C20" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="30" customHeight="1" thickBot="1">
-      <c r="C21" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="30.75" thickBot="1">
-      <c r="C22" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="46">
-        <v>13</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1956,347 +2117,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="88" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="45">
+        <v>13</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="52">
+        <v>5</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="51">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2201050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="75" t="s">
+      <c r="D8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="46">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>13</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="77">
-        <v>13</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="87" t="s">
+      <c r="J9" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="84">
-        <v>5</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="83">
-        <v>5</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="51">
-        <v>2201050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="78">
-        <v>13</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="30">
-        <v>13</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>21</v>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="14">
         <v>13</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="90" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="60">
+        <v>13</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="64" t="s">
+      <c r="F15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G19" s="64">
         <v>13</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="91"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="69" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G20" s="62">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="40.5" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="94">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="2"/>
-      <c r="C17" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1"/>
-    <row r="20" spans="2:7" ht="30" customHeight="1"/>
-    <row r="21" spans="2:7" ht="30" customHeight="1"/>
-    <row r="22" spans="2:7" ht="30" customHeight="1"/>
-    <row r="23" spans="2:7" ht="30" customHeight="1"/>
-    <row r="24" spans="2:7" ht="30" customHeight="1"/>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2305,21 +2513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A663B016B9E10D44AF2D6A2076639652" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5db5a296fe2f67eb9043fcf83d840253">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f168f81-3f83-4b33-9f0c-ec152bce3f98" xmlns:ns4="86822d51-02f5-488a-80f3-0b621e7c317a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc5e183dfb19cd21165c7acc8551f861" ns3:_="" ns4:_="">
     <xsd:import namespace="1f168f81-3f83-4b33-9f0c-ec152bce3f98"/>
@@ -2522,14 +2715,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F273EA-5907-44FB-B7B0-E01B15EE1FAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93419DEC-F278-4366-982F-77E19BD6B3E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f168f81-3f83-4b33-9f0c-ec152bce3f98"/>
+    <ds:schemaRef ds:uri="86822d51-02f5-488a-80f3-0b621e7c317a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C98312A-26C9-4A62-9D5A-29091FA9A97A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C98312A-26C9-4A62-9D5A-29091FA9A97A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93419DEC-F278-4366-982F-77E19BD6B3E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F273EA-5907-44FB-B7B0-E01B15EE1FAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/projeto/Documentos/BackLog-Luminous-Equipe-2.xlsx
+++ b/projeto/Documentos/BackLog-Luminous-Equipe-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Bandtec\PI\Luminous\projeto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7033FDB-9947-4995-BDC5-EC2DD0FD776B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF7AD64-AAEF-42B7-A027-8D49D3B124F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG DE LEGADO" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{8D33C0C1-6F86-428D-A5D0-68890463A6F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>( F ) FUNCIONAL --&gt; sem restrição
+( NF ) NÃO-FUNCIONAL --&gt; Com restrição
+	-Luiza Bezerra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{2005B0D3-7F8A-4EF1-9692-125D6EB64972}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>( F ) FUNCIONAL --&gt; sem restrição
+( NF ) NÃO-FUNCIONAL --&gt; Com restrição
+	-Luiza Bezerra</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -232,24 +260,9 @@
     <t>André Moura</t>
   </si>
   <si>
-    <t>INTERFACE AMIGÁVEL</t>
-  </si>
-  <si>
-    <t>INTERFACE INTUITIVA</t>
-  </si>
-  <si>
     <t>DADOS PRECISOS</t>
   </si>
   <si>
-    <t>MONITORAR A CPU</t>
-  </si>
-  <si>
-    <t>MONITORAR O ARMAZENAMENTO</t>
-  </si>
-  <si>
-    <t>MONITORAR A MEMÓRIA VIRTUAL</t>
-  </si>
-  <si>
     <t>ALERTA DE GARGALO</t>
   </si>
   <si>
@@ -262,9 +275,6 @@
     <t>MUDANÇA DE LAYOUT</t>
   </si>
   <si>
-    <t>CAPTURAR ESTATÍSTICAS</t>
-  </si>
-  <si>
     <t>DISPONIBILIZAR ESTATÍSTICAS</t>
   </si>
   <si>
@@ -284,6 +294,24 @@
   </si>
   <si>
     <t>Gerar relatório</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>ORDEM DE EXECUÇÃO</t>
+  </si>
+  <si>
+    <t>MONITORAR DADOS DE MÁQUINA</t>
+  </si>
+  <si>
+    <t>INTERFACE AMIGÁVEL E INTUITIVA</t>
+  </si>
+  <si>
+    <t>NOVA APLICAÇÃO</t>
+  </si>
+  <si>
+    <t>MELHORIAS DO PROJETO LEGADO</t>
   </si>
 </sst>
 </file>
@@ -351,13 +379,14 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,12 +449,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -440,21 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -605,19 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -657,166 +652,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -831,28 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1104,299 +938,417 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,382 +1678,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="31">
         <v>3</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="35">
         <v>3</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="76" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="39">
         <v>5</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="11">
         <v>2201050</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="42">
         <v>8</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="46">
         <v>13</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="42">
         <v>13</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="42">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="83" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="87" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="50">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="77" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="39">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="60" t="s">
+      <c r="C16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="35">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="54">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="58">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="102">
+      <c r="G21" s="62">
         <v>5</v>
       </c>
     </row>
@@ -2115,397 +2067,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="85">
+        <v>13</v>
+      </c>
+      <c r="H5" s="86">
+        <v>5</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="88">
+        <v>5</v>
+      </c>
+      <c r="H6" s="89">
+        <v>6</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="65">
+        <v>13</v>
+      </c>
+      <c r="H7" s="75">
+        <v>2</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2201050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="66">
+        <v>13</v>
+      </c>
+      <c r="H8" s="77">
+        <v>1</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="69">
+        <v>13</v>
+      </c>
+      <c r="H9" s="79">
+        <v>7</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="64">
+        <v>8</v>
+      </c>
+      <c r="H10" s="73">
         <v>4</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="28" t="s">
+      <c r="I10" s="63"/>
+      <c r="J10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="92">
+        <v>13</v>
+      </c>
+      <c r="H11" s="93">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="D13" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="70">
+        <v>8</v>
+      </c>
+      <c r="H16" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="66">
+        <v>8</v>
+      </c>
+      <c r="H17" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="71">
         <v>5</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="H18" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="E19" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G19" s="66">
         <v>13</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="H19" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F20" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="52">
-        <v>5</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="51" t="s">
+      <c r="G20" s="71">
         <v>8</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="51">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="20">
-        <v>2201050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="46">
-        <v>13</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>13</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>13</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="60">
-        <v>13</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H20" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D13:F13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2716,18 +2681,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2750,18 +2715,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F273EA-5907-44FB-B7B0-E01B15EE1FAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C98312A-26C9-4A62-9D5A-29091FA9A97A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F273EA-5907-44FB-B7B0-E01B15EE1FAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>